--- a/ISRaD_data_files/Johnson_2006.xlsx
+++ b/ISRaD_data_files/Johnson_2006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0076db\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A9DD0E-965D-4335-82A3-FF419C4529FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD636B6-8DB2-42EA-9EB1-A3DA847BEFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -6450,7 +6450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q985"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -7691,7 +7691,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8987,7 +8987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ1502"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -17911,8 +17911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DJ987"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19024,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="170">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" s="172"/>
       <c r="L4" s="172"/>
@@ -19163,7 +19163,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="170">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K5" s="172"/>
       <c r="L5" s="172"/>
@@ -19306,7 +19306,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="170">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K6" s="172"/>
       <c r="L6" s="172"/>
@@ -19445,7 +19445,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="170">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" s="172"/>
       <c r="L7" s="172"/>
@@ -19587,8 +19587,8 @@
       <c r="I8" s="170">
         <v>40</v>
       </c>
-      <c r="J8" s="170">
-        <v>40</v>
+      <c r="J8" s="168">
+        <v>50</v>
       </c>
       <c r="K8" s="172"/>
       <c r="L8" s="172"/>
@@ -19730,7 +19730,7 @@
         <v>50</v>
       </c>
       <c r="J9" s="168">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB9" s="172"/>
       <c r="AH9" s="175"/>
@@ -19775,7 +19775,7 @@
         <v>60</v>
       </c>
       <c r="J10" s="168">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T10" s="169">
         <v>0.3</v>
@@ -19826,7 +19826,7 @@
         <v>70</v>
       </c>
       <c r="J11" s="168">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T11" s="169">
         <v>0.4</v>
@@ -19877,7 +19877,7 @@
         <v>80</v>
       </c>
       <c r="J12" s="168">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB12" s="172"/>
       <c r="AH12" s="175"/>
@@ -19922,7 +19922,7 @@
         <v>90</v>
       </c>
       <c r="J13" s="168">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="T13" s="169">
         <v>0.2</v>
@@ -19973,7 +19973,7 @@
         <v>102</v>
       </c>
       <c r="J14" s="168">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="AB14" s="172"/>
       <c r="AH14" s="175"/>
@@ -20018,7 +20018,7 @@
         <v>116</v>
       </c>
       <c r="J15" s="168">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="T15" s="169">
         <v>0.2</v>
@@ -20069,7 +20069,7 @@
         <v>118</v>
       </c>
       <c r="J16" s="168">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="AB16" s="172"/>
       <c r="AH16" s="175"/>
@@ -20114,7 +20114,7 @@
         <v>130</v>
       </c>
       <c r="J17" s="168">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="T17" s="169">
         <v>0.1</v>
@@ -20165,7 +20165,7 @@
         <v>140</v>
       </c>
       <c r="J18" s="168">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB18" s="172"/>
       <c r="AH18" s="175"/>
@@ -20210,7 +20210,7 @@
         <v>150</v>
       </c>
       <c r="J19" s="168">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="T19" s="169">
         <v>0.4</v>
@@ -20261,7 +20261,7 @@
         <v>160</v>
       </c>
       <c r="J20" s="168">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="T20" s="169">
         <v>0.3</v>
@@ -20312,7 +20312,7 @@
         <v>169</v>
       </c>
       <c r="J21" s="168">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="T21" s="169">
         <v>0.4</v>
@@ -20363,7 +20363,7 @@
         <v>177</v>
       </c>
       <c r="J22" s="168">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="T22" s="169">
         <v>0.6</v>
@@ -20414,7 +20414,7 @@
         <v>190</v>
       </c>
       <c r="J23" s="168">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="T23" s="169">
         <v>0.7</v>
@@ -20465,7 +20465,7 @@
         <v>200</v>
       </c>
       <c r="J24" s="168">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="T24" s="169">
         <v>0.7</v>
@@ -20516,7 +20516,7 @@
         <v>210</v>
       </c>
       <c r="J25" s="168">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="T25" s="169">
         <v>0.5</v>
@@ -20567,7 +20567,7 @@
         <v>222</v>
       </c>
       <c r="J26" s="168">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="T26" s="169">
         <v>0.4</v>
@@ -20618,7 +20618,7 @@
         <v>230</v>
       </c>
       <c r="J27" s="168">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="T27" s="169">
         <v>0.4</v>
@@ -20669,7 +20669,7 @@
         <v>240</v>
       </c>
       <c r="J28" s="168">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="T28" s="169">
         <v>0.5</v>
@@ -20720,7 +20720,7 @@
         <v>250</v>
       </c>
       <c r="J29" s="168">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB29" s="172"/>
       <c r="AH29" s="175"/>
@@ -20765,7 +20765,7 @@
         <v>260</v>
       </c>
       <c r="J30" s="168">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="T30" s="169">
         <v>0.5</v>
@@ -20816,7 +20816,7 @@
         <v>270</v>
       </c>
       <c r="J31" s="168">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="T31" s="169">
         <v>0.5</v>
@@ -20867,7 +20867,7 @@
         <v>277</v>
       </c>
       <c r="J32" s="168">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="T32" s="169">
         <v>0.2</v>
@@ -20918,7 +20918,7 @@
         <v>287</v>
       </c>
       <c r="J33" s="168">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="T33" s="169">
         <v>0.2</v>
@@ -20969,7 +20969,7 @@
         <v>290</v>
       </c>
       <c r="J34" s="168">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AB34" s="172"/>
       <c r="AH34" s="175"/>
@@ -21014,7 +21014,7 @@
         <v>298</v>
       </c>
       <c r="J35" s="168">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB35" s="172"/>
       <c r="AH35" s="175"/>
@@ -23086,8 +23086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BZ1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
